--- a/biology/Botanique/Cortinaire_majestueux/Cortinaire_majestueux.xlsx
+++ b/biology/Botanique/Cortinaire_majestueux/Cortinaire_majestueux.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cortinarius praestans
 Cortinarius praestans, en français, le cortinaire remarquable,  cortinaire majestueux,  cortinaire élégant, aussi appelé cortinaire de Berkeley, est une espèce de champignons basidiomycètes de la famille des cortinariacées.
@@ -512,7 +524,9 @@
           <t>Description du sporophore</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le chapeau de 10 à 20 cm est globuleux puis largement étalé, brun vineux.
 Ses lames serrées, inégales, blanchâtres sont un peu violacées, cachées au début par une abondante cortine blanc violacé.
@@ -547,7 +561,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il pousse à l'automne en groupes, parfois en cercle dans des forêts de feuillus (chênes, frênes) sur sol calcaire et argilo-calcaire. Il est plutôt rare.
 </t>
@@ -578,7 +594,9 @@
           <t>Comestibilité</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un excellent comestible, sans doute le meilleur des cortinaires.
 </t>
@@ -609,7 +627,9 @@
           <t>Espèces proches et risques de confusion</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cortinaire remarquable peut se confondre avec d'autres gros cortinaires tels que Cortinarius varius, C. purpurascens ou C. alboviolaceus (de nombreux cortinaires présentent des teintes violacées) mais il s'en distingue facilement par sa taille et, comme son nom scientifique l'indique, sa prestance.
 </t>
